--- a/matched_MN_3070.xlsx
+++ b/matched_MN_3070.xlsx
@@ -1,26 +1,113 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowHeight="16560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="21">
+  <si>
+    <t>base_name</t>
+  </si>
+  <si>
+    <t>theoretical_mass</t>
+  </si>
+  <si>
+    <t>n_position</t>
+  </si>
+  <si>
+    <t>monoisotopic_mass</t>
+  </si>
+  <si>
+    <t>apex_rt</t>
+  </si>
+  <si>
+    <t>sum_intensity</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>RNA</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>sgRNA2</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>sgRNA1</t>
+  </si>
+  <si>
+    <t>N5</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -28,19 +115,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -48,9 +472,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -58,11 +724,63 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -345,63 +1063,52 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67:H133"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>base_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>theoretical_mass</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>n_position</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>monoisotopic_mass</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>apex_rt</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>sum_intensity</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>550.0948100000001</v>
+        <v>550.09481</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -415,20 +1122,19 @@
       <c r="F2">
         <v>87651659.78</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>870.1357600000001</v>
+        <v>870.13576</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -442,17 +1148,17 @@
       <c r="F3">
         <v>223166482.23</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="str">
+        <f>H2</f>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>8</v>
       </c>
       <c r="B4">
         <v>1176.16106</v>
@@ -469,17 +1175,17 @@
       <c r="F4">
         <v>211753316.24</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:H35" si="0">H3</f>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>12</v>
       </c>
       <c r="B5">
         <v>1481.20236</v>
@@ -496,17 +1202,17 @@
       <c r="F5">
         <v>211626135.84</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>13</v>
       </c>
       <c r="B6">
         <v>1826.24976</v>
@@ -523,17 +1229,17 @@
       <c r="F6">
         <v>417032120.19</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>8</v>
       </c>
       <c r="B7">
         <v>2132.27506</v>
@@ -550,17 +1256,17 @@
       <c r="F7">
         <v>198537.44</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>13</v>
       </c>
       <c r="B8">
         <v>2477.32246</v>
@@ -577,17 +1283,17 @@
       <c r="F8">
         <v>381678432.1</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>13</v>
       </c>
       <c r="B9">
         <v>2822.36986</v>
@@ -604,17 +1310,17 @@
       <c r="F9">
         <v>389958643.74</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>12</v>
       </c>
       <c r="B10">
         <v>3127.41116</v>
@@ -631,17 +1337,17 @@
       <c r="F10">
         <v>309123239.2</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>8</v>
       </c>
       <c r="B11">
         <v>3433.43646</v>
@@ -653,22 +1359,22 @@
         <v>3433.43760124294</v>
       </c>
       <c r="E11">
-        <v>8.438653199999999</v>
+        <v>8.4386532</v>
       </c>
       <c r="F11">
         <v>203163901.63</v>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>14</v>
       </c>
       <c r="B12">
         <v>4107.53636</v>
@@ -685,17 +1391,17 @@
       <c r="F12">
         <v>214072901.74</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>12</v>
       </c>
       <c r="B13">
         <v>4757.62506</v>
@@ -712,17 +1418,17 @@
       <c r="F13">
         <v>147826776.47</v>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>12</v>
       </c>
       <c r="B14">
         <v>5062.66636</v>
@@ -739,17 +1445,17 @@
       <c r="F14">
         <v>86804376.89</v>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>14</v>
       </c>
       <c r="B15">
         <v>5391.71886</v>
@@ -766,17 +1472,17 @@
       <c r="F15">
         <v>72639597.55</v>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>12</v>
       </c>
       <c r="B16">
         <v>5696.76016</v>
@@ -793,17 +1499,17 @@
       <c r="F16">
         <v>33181250.59</v>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>13</v>
       </c>
       <c r="B17">
         <v>6041.80756</v>
@@ -820,20 +1526,20 @@
       <c r="F17">
         <v>15778098.45</v>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>6386.854960000001</v>
+        <v>6386.85496</v>
       </c>
       <c r="C18">
         <v>20</v>
@@ -847,20 +1553,20 @@
       <c r="F18">
         <v>7286244.39</v>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>8</v>
       </c>
       <c r="B19">
-        <v>6692.880260000001</v>
+        <v>6692.88026</v>
       </c>
       <c r="C19">
         <v>21</v>
@@ -874,17 +1580,17 @@
       <c r="F19">
         <v>2461249.68</v>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>14</v>
       </c>
       <c r="B20">
         <v>10603.43446</v>
@@ -901,17 +1607,17 @@
       <c r="F20">
         <v>635585.45</v>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>14</v>
       </c>
       <c r="B21">
         <v>11543.55356</v>
@@ -928,17 +1634,17 @@
       <c r="F21">
         <v>150577.05</v>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>8</v>
       </c>
       <c r="B22">
         <v>11849.57886</v>
@@ -955,17 +1661,17 @@
       <c r="F22">
         <v>163767.35</v>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>12</v>
       </c>
       <c r="B23">
         <v>12805.69286</v>
@@ -982,17 +1688,17 @@
       <c r="F23">
         <v>689249.98</v>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>14</v>
       </c>
       <c r="B24">
         <v>14090.85936</v>
@@ -1009,17 +1715,17 @@
       <c r="F24">
         <v>1267961.05</v>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>14</v>
       </c>
       <c r="B25">
         <v>19287.56406</v>
@@ -1036,20 +1742,20 @@
       <c r="F25">
         <v>139754.89</v>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>12</v>
       </c>
       <c r="B26">
-        <v>19592.60536000001</v>
+        <v>19592.60536</v>
       </c>
       <c r="C26">
         <v>61</v>
@@ -1063,17 +1769,17 @@
       <c r="F26">
         <v>175551.98</v>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>13</v>
       </c>
       <c r="B27">
         <v>692.1149</v>
@@ -1090,17 +1796,17 @@
       <c r="F27">
         <v>234333924.81</v>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>8</v>
       </c>
       <c r="B28">
         <v>998.1402</v>
@@ -1117,17 +1823,17 @@
       <c r="F28">
         <v>311858977.73</v>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>16</v>
       </c>
       <c r="B29">
         <v>1317.19714</v>
@@ -1144,17 +1850,17 @@
       <c r="F29">
         <v>215971719.88</v>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>13</v>
       </c>
       <c r="B30">
         <v>1662.24454</v>
@@ -1171,17 +1877,17 @@
       <c r="F30">
         <v>295626711.46</v>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>13</v>
       </c>
       <c r="B31">
         <v>2007.29194</v>
@@ -1198,17 +1904,17 @@
       <c r="F31">
         <v>324509519.29</v>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>17</v>
       </c>
       <c r="B32">
         <v>2350.36011</v>
@@ -1220,22 +1926,22 @@
         <v>2350.38263320308</v>
       </c>
       <c r="E32">
-        <v>9.626377700000001</v>
+        <v>9.6263777</v>
       </c>
       <c r="F32">
         <v>92481.38</v>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>8</v>
       </c>
       <c r="B33">
         <v>2656.38541</v>
@@ -1247,22 +1953,22 @@
         <v>2656.38189517672</v>
       </c>
       <c r="E33">
-        <v>8.425504350000001</v>
+        <v>8.42550435</v>
       </c>
       <c r="F33">
         <v>282463957.06</v>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>13</v>
       </c>
       <c r="B34">
         <v>3346.48021</v>
@@ -1274,22 +1980,22 @@
         <v>3346.47863959783</v>
       </c>
       <c r="E34">
-        <v>9.712888250000001</v>
+        <v>9.71288825</v>
       </c>
       <c r="F34">
         <v>138401145.6</v>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>12</v>
       </c>
       <c r="B35">
         <v>3651.52151</v>
@@ -1306,20 +2012,20 @@
       <c r="F35">
         <v>141007317.99</v>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>12</v>
       </c>
       <c r="B36">
-        <v>3956.562809999999</v>
+        <v>3956.56281</v>
       </c>
       <c r="C36">
         <v>12</v>
@@ -1333,17 +2039,17 @@
       <c r="F36">
         <v>170070432.54</v>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" ref="H36:H61" si="1">H35</f>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>13</v>
       </c>
       <c r="B37">
         <v>4301.61021</v>
@@ -1360,17 +2066,17 @@
       <c r="F37">
         <v>125447097.56</v>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="1"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>14</v>
       </c>
       <c r="B38">
         <v>4630.66271</v>
@@ -1387,17 +2093,17 @@
       <c r="F38">
         <v>84297013.88</v>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="1"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>13</v>
       </c>
       <c r="B39">
         <v>4975.71011</v>
@@ -1414,17 +2120,17 @@
       <c r="F39">
         <v>47672642.74</v>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="1"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>8</v>
       </c>
       <c r="B40">
         <v>5281.73541</v>
@@ -1441,20 +2147,20 @@
       <c r="F40">
         <v>72242873.91</v>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="1"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>13</v>
       </c>
       <c r="B41">
-        <v>5626.782810000001</v>
+        <v>5626.78281</v>
       </c>
       <c r="C41">
         <v>17</v>
@@ -1468,20 +2174,20 @@
       <c r="F41">
         <v>56379165.91</v>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="1"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>13</v>
       </c>
       <c r="B42">
-        <v>5971.830210000001</v>
+        <v>5971.83021</v>
       </c>
       <c r="C42">
         <v>18</v>
@@ -1495,20 +2201,20 @@
       <c r="F42">
         <v>31838040.12</v>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="1"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>8</v>
       </c>
       <c r="B43">
-        <v>6277.855510000001</v>
+        <v>6277.85551</v>
       </c>
       <c r="C43">
         <v>19</v>
@@ -1522,20 +2228,20 @@
       <c r="F43">
         <v>50525574.37</v>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="1"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>12</v>
       </c>
       <c r="B44">
-        <v>6582.896810000001</v>
+        <v>6582.89681</v>
       </c>
       <c r="C44">
         <v>20</v>
@@ -1549,20 +2255,20 @@
       <c r="F44">
         <v>34737070.5</v>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="1"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>13</v>
       </c>
       <c r="B45">
-        <v>6927.944210000001</v>
+        <v>6927.94421</v>
       </c>
       <c r="C45">
         <v>21</v>
@@ -1576,20 +2282,20 @@
       <c r="F45">
         <v>15566569.6</v>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="1"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>8</v>
       </c>
       <c r="B46">
-        <v>7233.969510000002</v>
+        <v>7233.96951</v>
       </c>
       <c r="C46">
         <v>22</v>
@@ -1603,20 +2309,20 @@
       <c r="F46">
         <v>21248107.92</v>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G46" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="1"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>8</v>
       </c>
       <c r="B47">
-        <v>7539.994810000002</v>
+        <v>7539.99481</v>
       </c>
       <c r="C47">
         <v>23</v>
@@ -1630,20 +2336,20 @@
       <c r="F47">
         <v>24437625.56</v>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="1"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>8</v>
       </c>
       <c r="B48">
-        <v>7846.020110000002</v>
+        <v>7846.02011</v>
       </c>
       <c r="C48">
         <v>24</v>
@@ -1657,20 +2363,20 @@
       <c r="F48">
         <v>18453330.84</v>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="1"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>8</v>
       </c>
       <c r="B49">
-        <v>8152.045410000002</v>
+        <v>8152.04541</v>
       </c>
       <c r="C49">
         <v>25</v>
@@ -1684,20 +2390,20 @@
       <c r="F49">
         <v>25053930.71</v>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="1"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>14</v>
       </c>
       <c r="B50">
-        <v>8481.097910000002</v>
+        <v>8481.09791</v>
       </c>
       <c r="C50">
         <v>26</v>
@@ -1711,26 +2417,26 @@
       <c r="F50">
         <v>16333922.94</v>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G50" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="1"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>13</v>
       </c>
       <c r="B51">
-        <v>8826.145310000002</v>
+        <v>8826.14531</v>
       </c>
       <c r="C51">
         <v>27</v>
       </c>
       <c r="D51">
-        <v>8826.122350763229</v>
+        <v>8826.12235076323</v>
       </c>
       <c r="E51">
         <v>16.175718</v>
@@ -1738,26 +2444,26 @@
       <c r="F51">
         <v>14082336.26</v>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="1"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>14</v>
       </c>
       <c r="B52">
-        <v>9155.197810000001</v>
+        <v>9155.19781</v>
       </c>
       <c r="C52">
         <v>28</v>
       </c>
       <c r="D52">
-        <v>9155.151132180659</v>
+        <v>9155.15113218066</v>
       </c>
       <c r="E52">
         <v>16.463632</v>
@@ -1765,26 +2471,26 @@
       <c r="F52">
         <v>8244011.35</v>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="1"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>13</v>
       </c>
       <c r="B53">
-        <v>9500.245210000001</v>
+        <v>9500.24521</v>
       </c>
       <c r="C53">
         <v>29</v>
       </c>
       <c r="D53">
-        <v>9500.192119557791</v>
+        <v>9500.19211955779</v>
       </c>
       <c r="E53">
         <v>16.674213</v>
@@ -1792,26 +2498,26 @@
       <c r="F53">
         <v>5844839.29</v>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="G53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="1"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>12</v>
       </c>
       <c r="B54">
-        <v>9805.286510000002</v>
+        <v>9805.28651</v>
       </c>
       <c r="C54">
         <v>30</v>
       </c>
       <c r="D54">
-        <v>9805.250379982261</v>
+        <v>9805.25037998226</v>
       </c>
       <c r="E54">
         <v>16.786017</v>
@@ -1819,17 +2525,17 @@
       <c r="F54">
         <v>7054843.19</v>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G54" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="1"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>8</v>
       </c>
       <c r="B55">
         <v>10111.31181</v>
@@ -1846,17 +2552,17 @@
       <c r="F55">
         <v>7669854.38</v>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="1"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>13</v>
       </c>
       <c r="B56">
         <v>10785.41171</v>
@@ -1873,17 +2579,17 @@
       <c r="F56">
         <v>4728050.06</v>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="1"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>14</v>
       </c>
       <c r="B57">
         <v>11114.46421</v>
@@ -1900,17 +2606,17 @@
       <c r="F57">
         <v>4230094.69</v>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G57" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="1"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>14</v>
       </c>
       <c r="B58">
         <v>11443.51671</v>
@@ -1927,17 +2633,17 @@
       <c r="F58">
         <v>2803059.13</v>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="1"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>14</v>
       </c>
       <c r="B59">
         <v>11772.56921</v>
@@ -1954,17 +2660,17 @@
       <c r="F59">
         <v>1319596.25</v>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G59" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="1"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>8</v>
       </c>
       <c r="B60">
         <v>12078.59451</v>
@@ -1981,17 +2687,17 @@
       <c r="F60">
         <v>4281908.93</v>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="1"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>13</v>
       </c>
       <c r="B61">
         <v>12752.69441</v>
@@ -2008,17 +2714,17 @@
       <c r="F61">
         <v>751776.74</v>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="1"/>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>14</v>
       </c>
       <c r="B62">
         <v>16953.27901</v>
@@ -2035,17 +2741,17 @@
       <c r="F62">
         <v>178818.74</v>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" t="str">
+        <f>H61</f>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>8</v>
       </c>
       <c r="B63">
         <v>18254.44041</v>
@@ -2062,17 +2768,17 @@
       <c r="F63">
         <v>138756.61</v>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G63" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" t="str">
+        <f>H62</f>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>13</v>
       </c>
       <c r="B64">
         <v>18928.54031</v>
@@ -2089,17 +2795,17 @@
       <c r="F64">
         <v>180327.21</v>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G64" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" t="str">
+        <f>H63</f>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>8</v>
       </c>
       <c r="B65">
         <v>19234.56561</v>
@@ -2116,17 +2822,17 @@
       <c r="F65">
         <v>160794.88</v>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G65" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" t="str">
+        <f>H64</f>
+        <v>sgRNA2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>8</v>
       </c>
       <c r="B66">
         <v>589.11691</v>
@@ -2143,20 +2849,19 @@
       <c r="F66">
         <v>1617866.04</v>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>N3</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="G66" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>12</v>
       </c>
       <c r="B67">
-        <v>894.1582099999999</v>
+        <v>894.15821</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -2170,17 +2875,17 @@
       <c r="F67">
         <v>2486092.23</v>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>N3</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G67" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" t="str">
+        <f>H66</f>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>14</v>
       </c>
       <c r="B68">
         <v>1223.21071</v>
@@ -2197,17 +2902,17 @@
       <c r="F68">
         <v>3315410.27</v>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>N3</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G68" t="s">
+        <v>18</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" ref="H68:H99" si="2">H67</f>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>13</v>
       </c>
       <c r="B69">
         <v>1568.25811</v>
@@ -2224,17 +2929,17 @@
       <c r="F69">
         <v>1019375.06</v>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>N3</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G69" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="2"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>13</v>
       </c>
       <c r="B70">
         <v>1913.30551</v>
@@ -2251,17 +2956,17 @@
       <c r="F70">
         <v>332254.4</v>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>N3</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G70" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="2"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>14</v>
       </c>
       <c r="B71">
         <v>2242.35801</v>
@@ -2278,20 +2983,20 @@
       <c r="F71">
         <v>225778.28</v>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>N3</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G71" t="s">
+        <v>18</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="2"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>8</v>
       </c>
       <c r="B72">
-        <v>6169.853410000002</v>
+        <v>6169.85341</v>
       </c>
       <c r="C72">
         <v>19</v>
@@ -2305,17 +3010,17 @@
       <c r="F72">
         <v>84496149.13</v>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>N3</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G72" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="2"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>14</v>
       </c>
       <c r="B73">
         <v>11006.46211</v>
@@ -2332,17 +3037,17 @@
       <c r="F73">
         <v>1369216.34</v>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>N3</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G73" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="2"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>13</v>
       </c>
       <c r="B74">
         <v>12644.69231</v>
@@ -2359,17 +3064,17 @@
       <c r="F74">
         <v>1048469.78</v>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>N3</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G74" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="2"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>14</v>
       </c>
       <c r="B75">
         <v>14893.98911</v>
@@ -2384,19 +3089,19 @@
         <v>18.950826</v>
       </c>
       <c r="F75">
-        <v>75641.35000000001</v>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>N3</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+        <v>75641.35</v>
+      </c>
+      <c r="G75" t="s">
+        <v>18</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="2"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>14</v>
       </c>
       <c r="B76">
         <v>15881.14661</v>
@@ -2413,17 +3118,17 @@
       <c r="F76">
         <v>272575.91</v>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>N3</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G76" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="2"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>8</v>
       </c>
       <c r="B77">
         <v>669.0877</v>
@@ -2440,17 +3145,17 @@
       <c r="F77">
         <v>63180610.35</v>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="G77" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="2"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>12</v>
       </c>
       <c r="B78">
         <v>974.129</v>
@@ -2467,17 +3172,17 @@
       <c r="F78">
         <v>636534335.33</v>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="2"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>14</v>
       </c>
       <c r="B79">
         <v>1303.1815</v>
@@ -2494,17 +3199,17 @@
       <c r="F79">
         <v>496364557.16</v>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G79" t="s">
+        <v>20</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="2"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>13</v>
       </c>
       <c r="B80">
         <v>1648.2289</v>
@@ -2521,17 +3226,17 @@
       <c r="F80">
         <v>1004286300.6</v>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G80" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="2"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>13</v>
       </c>
       <c r="B81">
         <v>1993.2763</v>
@@ -2546,19 +3251,19 @@
         <v>6.43662265</v>
       </c>
       <c r="F81">
-        <v>825578071.0100009</v>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+        <v>825578071.010001</v>
+      </c>
+      <c r="G81" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="2"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>14</v>
       </c>
       <c r="B82">
         <v>2322.3288</v>
@@ -2575,17 +3280,17 @@
       <c r="F82">
         <v>547394974.98</v>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G82" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="2"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>8</v>
       </c>
       <c r="B83">
         <v>2628.3541</v>
@@ -2602,17 +3307,17 @@
       <c r="F83">
         <v>641327564.01</v>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G83" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="2"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>13</v>
       </c>
       <c r="B84">
         <v>2973.4015</v>
@@ -2629,17 +3334,17 @@
       <c r="F84">
         <v>438073793.45</v>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G84" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="2"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>13</v>
       </c>
       <c r="B85">
         <v>3318.4489</v>
@@ -2656,17 +3361,17 @@
       <c r="F85">
         <v>291177568.88</v>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="G85" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="2"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>12</v>
       </c>
       <c r="B86">
         <v>3623.4902</v>
@@ -2683,17 +3388,17 @@
       <c r="F86">
         <v>1484637.1</v>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="G86" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="2"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>12</v>
       </c>
       <c r="B87">
         <v>3928.5315</v>
@@ -2710,17 +3415,17 @@
       <c r="F87">
         <v>493031641.42</v>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G87" t="s">
+        <v>20</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="2"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>13</v>
       </c>
       <c r="B88">
         <v>4273.5789</v>
@@ -2737,17 +3442,17 @@
       <c r="F88">
         <v>111098015.64</v>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G88" t="s">
+        <v>20</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="2"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>14</v>
       </c>
       <c r="B89">
         <v>4602.6314</v>
@@ -2764,20 +3469,20 @@
       <c r="F89">
         <v>160459939.19</v>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G89" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" si="2"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>13</v>
       </c>
       <c r="B90">
-        <v>4947.678800000001</v>
+        <v>4947.6788</v>
       </c>
       <c r="C90">
         <v>15</v>
@@ -2791,20 +3496,20 @@
       <c r="F90">
         <v>97905737.81</v>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G90" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="2"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>8</v>
       </c>
       <c r="B91">
-        <v>5253.704100000001</v>
+        <v>5253.7041</v>
       </c>
       <c r="C91">
         <v>16</v>
@@ -2813,25 +3518,25 @@
         <v>5253.74011960563</v>
       </c>
       <c r="E91">
-        <v>8.388566750000001</v>
+        <v>8.38856675</v>
       </c>
       <c r="F91">
         <v>181985.88</v>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G91" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" si="2"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>13</v>
       </c>
       <c r="B92">
-        <v>5943.798900000002</v>
+        <v>5943.7989</v>
       </c>
       <c r="C92">
         <v>18</v>
@@ -2845,20 +3550,20 @@
       <c r="F92">
         <v>1081150.57</v>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G92" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" si="2"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>8</v>
       </c>
       <c r="B93">
-        <v>6249.824200000002</v>
+        <v>6249.8242</v>
       </c>
       <c r="C93">
         <v>19</v>
@@ -2872,20 +3577,20 @@
       <c r="F93">
         <v>100679562.3</v>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="G93" t="s">
+        <v>20</v>
+      </c>
+      <c r="H93" t="str">
+        <f t="shared" si="2"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>12</v>
       </c>
       <c r="B94">
-        <v>6554.865500000002</v>
+        <v>6554.8655</v>
       </c>
       <c r="C94">
         <v>20</v>
@@ -2899,20 +3604,20 @@
       <c r="F94">
         <v>66355456.38</v>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G94" t="s">
+        <v>20</v>
+      </c>
+      <c r="H94" t="str">
+        <f t="shared" si="2"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>13</v>
       </c>
       <c r="B95">
-        <v>6899.912900000002</v>
+        <v>6899.9129</v>
       </c>
       <c r="C95">
         <v>21</v>
@@ -2926,20 +3631,20 @@
       <c r="F95">
         <v>28580665.56</v>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G95" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" t="str">
+        <f t="shared" si="2"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>8</v>
       </c>
       <c r="B96">
-        <v>7205.938200000002</v>
+        <v>7205.9382</v>
       </c>
       <c r="C96">
         <v>22</v>
@@ -2953,20 +3658,20 @@
       <c r="F96">
         <v>39562663.04</v>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G96" t="s">
+        <v>20</v>
+      </c>
+      <c r="H96" t="str">
+        <f t="shared" si="2"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>8</v>
       </c>
       <c r="B97">
-        <v>7817.988800000003</v>
+        <v>7817.9888</v>
       </c>
       <c r="C97">
         <v>24</v>
@@ -2980,20 +3685,20 @@
       <c r="F97">
         <v>49583020.58</v>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G97" t="s">
+        <v>20</v>
+      </c>
+      <c r="H97" t="str">
+        <f t="shared" si="2"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>8</v>
       </c>
       <c r="B98">
-        <v>8124.014100000003</v>
+        <v>8124.0141</v>
       </c>
       <c r="C98">
         <v>25</v>
@@ -3007,20 +3712,20 @@
       <c r="F98">
         <v>41172081.46</v>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G98" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" t="str">
+        <f t="shared" si="2"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>14</v>
       </c>
       <c r="B99">
-        <v>8453.066600000004</v>
+        <v>8453.0666</v>
       </c>
       <c r="C99">
         <v>26</v>
@@ -3034,20 +3739,20 @@
       <c r="F99">
         <v>25493307.75</v>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G99" t="s">
+        <v>20</v>
+      </c>
+      <c r="H99" t="str">
+        <f t="shared" si="2"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>13</v>
       </c>
       <c r="B100">
-        <v>8798.114000000003</v>
+        <v>8798.114</v>
       </c>
       <c r="C100">
         <v>27</v>
@@ -3061,20 +3766,20 @@
       <c r="F100">
         <v>28842933.97</v>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G100" t="s">
+        <v>20</v>
+      </c>
+      <c r="H100" t="str">
+        <f t="shared" ref="H100:H131" si="3">H99</f>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>14</v>
       </c>
       <c r="B101">
-        <v>9127.166500000003</v>
+        <v>9127.1665</v>
       </c>
       <c r="C101">
         <v>28</v>
@@ -3088,26 +3793,26 @@
       <c r="F101">
         <v>19492228.16</v>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G101" t="s">
+        <v>20</v>
+      </c>
+      <c r="H101" t="str">
+        <f t="shared" si="3"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>13</v>
       </c>
       <c r="B102">
-        <v>9472.213900000002</v>
+        <v>9472.2139</v>
       </c>
       <c r="C102">
         <v>29</v>
       </c>
       <c r="D102">
-        <v>9472.200732908341</v>
+        <v>9472.20073290834</v>
       </c>
       <c r="E102">
         <v>16.4506895</v>
@@ -3115,26 +3820,26 @@
       <c r="F102">
         <v>14718837.58</v>
       </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="G102" t="s">
+        <v>20</v>
+      </c>
+      <c r="H102" t="str">
+        <f t="shared" si="3"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>12</v>
       </c>
       <c r="B103">
-        <v>9777.255200000003</v>
+        <v>9777.2552</v>
       </c>
       <c r="C103">
         <v>30</v>
       </c>
       <c r="D103">
-        <v>9777.239782392409</v>
+        <v>9777.23978239241</v>
       </c>
       <c r="E103">
         <v>16.6379565</v>
@@ -3142,17 +3847,17 @@
       <c r="F103">
         <v>14610574.16</v>
       </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G103" t="s">
+        <v>20</v>
+      </c>
+      <c r="H103" t="str">
+        <f t="shared" si="3"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>8</v>
       </c>
       <c r="B104">
         <v>10083.2805</v>
@@ -3169,17 +3874,17 @@
       <c r="F104">
         <v>17399244.8</v>
       </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G104" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" t="str">
+        <f t="shared" si="3"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
+        <v>14</v>
       </c>
       <c r="B105">
         <v>10412.333</v>
@@ -3196,17 +3901,17 @@
       <c r="F105">
         <v>10026825.65</v>
       </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G105" t="s">
+        <v>20</v>
+      </c>
+      <c r="H105" t="str">
+        <f t="shared" si="3"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" t="s">
+        <v>13</v>
       </c>
       <c r="B106">
         <v>10757.3804</v>
@@ -3223,17 +3928,17 @@
       <c r="F106">
         <v>10225861.33</v>
       </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G106" t="s">
+        <v>20</v>
+      </c>
+      <c r="H106" t="str">
+        <f t="shared" si="3"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" t="s">
+        <v>14</v>
       </c>
       <c r="B107">
         <v>11086.4329</v>
@@ -3250,17 +3955,17 @@
       <c r="F107">
         <v>8266453.39</v>
       </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G107" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107" t="str">
+        <f t="shared" si="3"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
+        <v>14</v>
       </c>
       <c r="B108">
         <v>11415.4854</v>
@@ -3277,17 +3982,17 @@
       <c r="F108">
         <v>8926223.9</v>
       </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G108" t="s">
+        <v>20</v>
+      </c>
+      <c r="H108" t="str">
+        <f t="shared" si="3"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" t="s">
+        <v>14</v>
       </c>
       <c r="B109">
         <v>11744.5379</v>
@@ -3304,17 +4009,17 @@
       <c r="F109">
         <v>5715597.04</v>
       </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G109" t="s">
+        <v>20</v>
+      </c>
+      <c r="H109" t="str">
+        <f t="shared" si="3"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" t="s">
+        <v>8</v>
       </c>
       <c r="B110">
         <v>12050.5632</v>
@@ -3329,19 +4034,19 @@
         <v>17.876181</v>
       </c>
       <c r="F110">
-        <v>9631545.810000001</v>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+        <v>9631545.81</v>
+      </c>
+      <c r="G110" t="s">
+        <v>20</v>
+      </c>
+      <c r="H110" t="str">
+        <f t="shared" si="3"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" t="s">
+        <v>14</v>
       </c>
       <c r="B111">
         <v>12379.6157</v>
@@ -3358,17 +4063,17 @@
       <c r="F111">
         <v>6034156.44</v>
       </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G111" t="s">
+        <v>20</v>
+      </c>
+      <c r="H111" t="str">
+        <f t="shared" si="3"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" t="s">
+        <v>13</v>
       </c>
       <c r="B112">
         <v>12724.6631</v>
@@ -3385,17 +4090,17 @@
       <c r="F112">
         <v>6084539.8</v>
       </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="G112" t="s">
+        <v>20</v>
+      </c>
+      <c r="H112" t="str">
+        <f t="shared" si="3"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" t="s">
+        <v>12</v>
       </c>
       <c r="B113">
         <v>13029.7044</v>
@@ -3412,17 +4117,17 @@
       <c r="F113">
         <v>3136553.69</v>
       </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G113" t="s">
+        <v>20</v>
+      </c>
+      <c r="H113" t="str">
+        <f t="shared" si="3"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" t="s">
+        <v>14</v>
       </c>
       <c r="B114">
         <v>13358.7569</v>
@@ -3439,17 +4144,17 @@
       <c r="F114">
         <v>1358754.44</v>
       </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G114" t="s">
+        <v>20</v>
+      </c>
+      <c r="H114" t="str">
+        <f t="shared" si="3"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" t="s">
+        <v>14</v>
       </c>
       <c r="B115">
         <v>13687.8094</v>
@@ -3466,17 +4171,17 @@
       <c r="F115">
         <v>1074149.59</v>
       </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G115" t="s">
+        <v>20</v>
+      </c>
+      <c r="H115" t="str">
+        <f t="shared" si="3"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" t="s">
+        <v>13</v>
       </c>
       <c r="B116">
         <v>14032.8568</v>
@@ -3493,17 +4198,17 @@
       <c r="F116">
         <v>472420.88</v>
       </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G116" t="s">
+        <v>20</v>
+      </c>
+      <c r="H116" t="str">
+        <f t="shared" si="3"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" t="s">
+        <v>8</v>
       </c>
       <c r="B117">
         <v>14338.8821</v>
@@ -3520,17 +4225,17 @@
       <c r="F117">
         <v>2263031.07</v>
       </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G117" t="s">
+        <v>20</v>
+      </c>
+      <c r="H117" t="str">
+        <f t="shared" si="3"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
+        <v>8</v>
       </c>
       <c r="B118">
         <v>14644.9074</v>
@@ -3547,17 +4252,17 @@
       <c r="F118">
         <v>2520359.23</v>
       </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G118" t="s">
+        <v>20</v>
+      </c>
+      <c r="H118" t="str">
+        <f t="shared" si="3"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" t="s">
+        <v>14</v>
       </c>
       <c r="B119">
         <v>14973.9599</v>
@@ -3574,17 +4279,17 @@
       <c r="F119">
         <v>3195397.04</v>
       </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G119" t="s">
+        <v>20</v>
+      </c>
+      <c r="H119" t="str">
+        <f t="shared" si="3"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" t="s">
+        <v>14</v>
       </c>
       <c r="B120">
         <v>15303.0124</v>
@@ -3601,17 +4306,17 @@
       <c r="F120">
         <v>1797491.61</v>
       </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G120" t="s">
+        <v>20</v>
+      </c>
+      <c r="H120" t="str">
+        <f t="shared" si="3"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" t="s">
+        <v>14</v>
       </c>
       <c r="B121">
         <v>15632.0649</v>
@@ -3628,17 +4333,17 @@
       <c r="F121">
         <v>1904448.22</v>
       </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G121" t="s">
+        <v>20</v>
+      </c>
+      <c r="H121" t="str">
+        <f t="shared" si="3"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" t="s">
+        <v>8</v>
       </c>
       <c r="B122">
         <v>16267.1427</v>
@@ -3655,17 +4360,17 @@
       <c r="F122">
         <v>3052020.01</v>
       </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G122" t="s">
+        <v>20</v>
+      </c>
+      <c r="H122" t="str">
+        <f t="shared" si="3"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" t="s">
+        <v>14</v>
       </c>
       <c r="B123">
         <v>16596.1952</v>
@@ -3682,17 +4387,17 @@
       <c r="F123">
         <v>1983626.56</v>
       </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G123" t="s">
+        <v>20</v>
+      </c>
+      <c r="H123" t="str">
+        <f t="shared" si="3"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" t="s">
+        <v>13</v>
       </c>
       <c r="B124">
         <v>17270.2951</v>
@@ -3709,17 +4414,17 @@
       <c r="F124">
         <v>615905.98</v>
       </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G124" t="s">
+        <v>20</v>
+      </c>
+      <c r="H124" t="str">
+        <f t="shared" si="3"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" t="s">
+        <v>13</v>
       </c>
       <c r="B125">
         <v>17615.3425</v>
@@ -3736,17 +4441,17 @@
       <c r="F125">
         <v>475387.32</v>
       </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="G125" t="s">
+        <v>20</v>
+      </c>
+      <c r="H125" t="str">
+        <f t="shared" si="3"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" t="s">
+        <v>12</v>
       </c>
       <c r="B126">
         <v>17920.3838</v>
@@ -3761,19 +4466,19 @@
         <v>19.4395755</v>
       </c>
       <c r="F126">
-        <v>889970.5600000001</v>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+        <v>889970.56</v>
+      </c>
+      <c r="G126" t="s">
+        <v>20</v>
+      </c>
+      <c r="H126" t="str">
+        <f t="shared" si="3"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" t="s">
+        <v>8</v>
       </c>
       <c r="B127">
         <v>18226.4091</v>
@@ -3788,19 +4493,19 @@
         <v>19.4878905</v>
       </c>
       <c r="F127">
-        <v>866319.3199999999</v>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+        <v>866319.32</v>
+      </c>
+      <c r="G127" t="s">
+        <v>20</v>
+      </c>
+      <c r="H127" t="str">
+        <f t="shared" si="3"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" t="s">
+        <v>14</v>
       </c>
       <c r="B128">
         <v>18555.4616</v>
@@ -3817,17 +4522,17 @@
       <c r="F128">
         <v>437895.43</v>
       </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G128" t="s">
+        <v>20</v>
+      </c>
+      <c r="H128" t="str">
+        <f t="shared" si="3"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" t="s">
+        <v>8</v>
       </c>
       <c r="B129">
         <v>19206.5343</v>
@@ -3844,17 +4549,17 @@
       <c r="F129">
         <v>224679.72</v>
       </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="G129" t="s">
+        <v>20</v>
+      </c>
+      <c r="H129" t="str">
+        <f t="shared" si="3"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" t="s">
+        <v>12</v>
       </c>
       <c r="B130">
         <v>19816.6169</v>
@@ -3871,20 +4576,20 @@
       <c r="F130">
         <v>956990.51</v>
       </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G130" t="s">
+        <v>20</v>
+      </c>
+      <c r="H130" t="str">
+        <f t="shared" si="3"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" t="s">
+        <v>8</v>
       </c>
       <c r="B131">
-        <v>20467.68960000001</v>
+        <v>20467.6896</v>
       </c>
       <c r="C131">
         <v>63</v>
@@ -3898,20 +4603,20 @@
       <c r="F131">
         <v>524829.23</v>
       </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G131" t="s">
+        <v>20</v>
+      </c>
+      <c r="H131" t="str">
+        <f t="shared" si="3"/>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" t="s">
+        <v>8</v>
       </c>
       <c r="B132">
-        <v>20773.71490000001</v>
+        <v>20773.7149</v>
       </c>
       <c r="C132">
         <v>64</v>
@@ -3925,20 +4630,20 @@
       <c r="F132">
         <v>507630.26</v>
       </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+      <c r="G132" t="s">
+        <v>20</v>
+      </c>
+      <c r="H132" t="str">
+        <f>H131</f>
+        <v>sgRNA1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" t="s">
+        <v>8</v>
       </c>
       <c r="B133">
-        <v>23289.03090000002</v>
+        <v>23289.0309</v>
       </c>
       <c r="C133">
         <v>72</v>
@@ -3952,13 +4657,16 @@
       <c r="F133">
         <v>191102.49</v>
       </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
+      <c r="G133" t="s">
+        <v>20</v>
+      </c>
+      <c r="H133" t="str">
+        <f>H132</f>
+        <v>sgRNA1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>